--- a/Dream Team Documents/Master Gantt.xlsx
+++ b/Dream Team Documents/Master Gantt.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Maze_Runner\Dream Team Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0136B571-6C43-4FC7-ACF5-A39A5CBA3306}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Management Summary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Gantt" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Meetings" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="SA" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt" sheetId="2" r:id="rId2"/>
+    <sheet name="Meetings" sheetId="3" r:id="rId3"/>
+    <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,115 +36,115 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="42">
   <si>
-    <t xml:space="preserve">Total</t>
+    <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding</t>
+    <t>Coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings</t>
+    <t>Meetings</t>
   </si>
   <si>
-    <t xml:space="preserve">Systems Analysis</t>
+    <t>Systems Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Budgeted</t>
+    <t>Budgeted</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual</t>
+    <t>Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Deficit</t>
+    <t>Deficit</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacob Friedberg:</t>
+    <t>Jacob Friedberg:</t>
   </si>
   <si>
-    <t xml:space="preserve">Cameron Dearien:</t>
+    <t>Cameron Dearien:</t>
   </si>
   <si>
-    <t xml:space="preserve">Conrad Mearns:</t>
+    <t>Conrad Mearns:</t>
   </si>
   <si>
-    <t xml:space="preserve">Benjamin Hallman:</t>
+    <t>Benjamin Hallman:</t>
   </si>
   <si>
-    <t xml:space="preserve">Delaney Fitzgerald:</t>
+    <t>Delaney Fitzgerald:</t>
   </si>
   <si>
-    <t xml:space="preserve">Corbin Schueller:</t>
+    <t>Corbin Schueller:</t>
   </si>
   <si>
-    <t xml:space="preserve">Totals:</t>
+    <t>Totals:</t>
   </si>
   <si>
-    <t xml:space="preserve">Time Predicted (hrs)</t>
+    <t>Time Predicted (hrs)</t>
   </si>
   <si>
-    <t xml:space="preserve">Time Spent (hrs)</t>
+    <t>Time Spent (hrs)</t>
   </si>
   <si>
-    <t xml:space="preserve">Key</t>
+    <t>Key</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed</t>
+    <t>Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">This Week</t>
+    <t>This Week</t>
   </si>
   <si>
-    <t xml:space="preserve">Planned</t>
+    <t>Planned</t>
   </si>
   <si>
-    <t xml:space="preserve">Hours:</t>
+    <t>Hours:</t>
   </si>
   <si>
-    <t xml:space="preserve">TBD</t>
+    <t>TBD</t>
   </si>
   <si>
-    <t xml:space="preserve">Master Gantt Chart</t>
+    <t>Master Gantt Chart</t>
   </si>
   <si>
-    <t xml:space="preserve">group totals (hrs)</t>
+    <t>group totals (hrs)</t>
   </si>
   <si>
-    <t xml:space="preserve">group totals ($)</t>
+    <t>group totals ($)</t>
   </si>
   <si>
-    <t xml:space="preserve">ü</t>
+    <t>ü</t>
   </si>
   <si>
-    <t xml:space="preserve">Date:</t>
+    <t>Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan. 25</t>
+    <t>Jan. 25</t>
   </si>
   <si>
-    <t xml:space="preserve">Purpose:</t>
+    <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">First Meeting</t>
+    <t>First Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Ananlysis Planning</t>
+    <t>Ananlysis Planning</t>
   </si>
   <si>
-    <t xml:space="preserve">Ananlysis Integration</t>
+    <t>Ananlysis Integration</t>
   </si>
   <si>
-    <t xml:space="preserve">Ananlysis presentation practice</t>
+    <t>Ananlysis presentation practice</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial Set-up</t>
+    <t>Initial Set-up</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial Release</t>
+    <t>Initial Release</t>
   </si>
   <si>
-    <t xml:space="preserve">Team Lead 2 demo practice</t>
+    <t>Team Lead 2 demo practice</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Code Integrateion</t>
+    <t>Test Code Integrateion</t>
   </si>
   <si>
     <r>
@@ -151,56 +162,39 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(RED IS DEPENDENT ON OTHERS)</t>
+      <t>(RED IS DEPENDENT ON OTHERS)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Individual Schedule:</t>
+    <t>Individual Schedule:</t>
   </si>
   <si>
-    <t xml:space="preserve">Subtotal</t>
+    <t>Subtotal</t>
   </si>
   <si>
     <t xml:space="preserve">Coding Standards </t>
   </si>
   <si>
-    <t xml:space="preserve">Subtotal:</t>
+    <t>Subtotal:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00_);[RED]&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00;[RED]\$#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -212,14 +206,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Wingdings"/>
-      <family val="0"/>
       <charset val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -269,373 +261,276 @@
     </fill>
   </fills>
   <borders count="13">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -694,44 +589,352 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.83"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +957,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -795,364 +998,364 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14" t="n">
-        <f aca="false">(B3-C3)</f>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D8" si="0">(B3-C3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="15" t="n">
-        <f aca="false">(Gantt!$B10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16" t="n">
-        <f aca="false">(Gantt!$C10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="17" t="n">
-        <f aca="false">(F3-G3)</f>
+      <c r="F3" s="15">
+        <f>(Gantt!$B10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <f>(Gantt!$C10)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H8" si="1">(F3-G3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="n">
-        <f aca="false">Meetings!B4*100</f>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <f>Meetings!B4*100</f>
         <v>150</v>
       </c>
-      <c r="L3" s="14" t="n">
-        <f aca="false">(J3-K3)</f>
+      <c r="L3" s="14">
+        <f t="shared" ref="L3:L8" si="2">(J3-K3)</f>
         <v>-150</v>
       </c>
       <c r="M3" s="10"/>
-      <c r="N3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14" t="n">
-        <f aca="false">(N3-O3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" ref="P3:P8" si="3">(N3-O3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17" t="n">
-        <f aca="false">(B4-C4)</f>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="15" t="n">
-        <f aca="false">(Gantt!$B18)*100</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="16" t="n">
-        <f aca="false">(Gantt!$C18)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="17" t="n">
-        <f aca="false">(F4-G4)</f>
+      <c r="F4" s="15">
+        <f>(Gantt!$B18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <f>(Gantt!$C18)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17" t="n">
-        <f aca="false">(J4-K4)</f>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="10"/>
-      <c r="N4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17" t="n">
-        <f aca="false">(N4-O4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17" t="n">
-        <f aca="false">(B5-C5)</f>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="15" t="n">
-        <f aca="false">(Gantt!$B26)*100</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="16" t="n">
-        <f aca="false">(Gantt!$C26)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="17" t="n">
-        <f aca="false">(F5-G5)</f>
+      <c r="F5" s="15">
+        <f>(Gantt!$B26)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <f>(Gantt!$C26)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16" t="n">
-        <f aca="false">Meetings!B4*100</f>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <f>Meetings!B4*100</f>
         <v>150</v>
       </c>
-      <c r="L5" s="17" t="n">
-        <f aca="false">(J5-K5)</f>
+      <c r="L5" s="17">
+        <f t="shared" si="2"/>
         <v>-150</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17" t="n">
-        <f aca="false">(N5-O5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17" t="n">
-        <f aca="false">(B6-C6)</f>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="15" t="n">
-        <f aca="false">(Gantt!$B20)*100</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="16" t="n">
-        <f aca="false">(Gantt!$C20)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="17" t="n">
-        <f aca="false">(F6-G6)</f>
+      <c r="F6" s="15">
+        <f>(Gantt!$B20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <f>(Gantt!$C20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16" t="n">
-        <f aca="false">Meetings!B5*100</f>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <f>Meetings!B5*100</f>
         <v>150</v>
       </c>
-      <c r="L6" s="17" t="n">
-        <f aca="false">(J6-K6)</f>
+      <c r="L6" s="17">
+        <f t="shared" si="2"/>
         <v>-150</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17" t="n">
-        <f aca="false">(N6-O6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17" t="n">
-        <f aca="false">(B7-C7)</f>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="15" t="n">
-        <f aca="false">(Gantt!$B28)*100</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <f aca="false">(Gantt!$C28)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="17" t="n">
-        <f aca="false">(F7-G7)</f>
+      <c r="F7" s="15">
+        <f>(Gantt!$B28)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <f>(Gantt!$C28)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16" t="n">
-        <f aca="false">Meetings!B6*100</f>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <f>Meetings!B6*100</f>
         <v>150</v>
       </c>
-      <c r="L7" s="17" t="n">
-        <f aca="false">(J7-K7)</f>
+      <c r="L7" s="17">
+        <f t="shared" si="2"/>
         <v>-150</v>
       </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17" t="n">
-        <f aca="false">(N7-O7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21" t="n">
-        <f aca="false">(B8-C8)</f>
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="15" t="n">
-        <f aca="false">(Gantt!$B36)*100</f>
+      <c r="F8" s="15">
+        <f>(Gantt!$B36)*100</f>
         <v>100</v>
       </c>
-      <c r="G8" s="16" t="n">
-        <f aca="false">(Gantt!$C36)*100</f>
+      <c r="G8" s="16">
+        <f>(Gantt!$C36)*100</f>
         <v>75</v>
       </c>
-      <c r="H8" s="17" t="n">
-        <f aca="false">(F8-G8)</f>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16" t="n">
-        <f aca="false">Meetings!B7*100</f>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <f>Meetings!B7*100</f>
         <v>150</v>
       </c>
-      <c r="L8" s="17" t="n">
-        <f aca="false">(J8-K8)</f>
+      <c r="L8" s="17">
+        <f t="shared" si="2"/>
         <v>-150</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="21" t="n">
-        <f aca="false">(N8-O8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23" t="n">
-        <f aca="false">SUM(B3:B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="24" t="n">
-        <f aca="false">SUM(C3:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="25" t="n">
-        <f aca="false">SUM(D3:D8)</f>
+      <c r="B9" s="23">
+        <f>SUM(B3:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
+        <f>SUM(C3:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <f>SUM(D3:D8)</f>
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="26" t="n">
-        <f aca="false">SUM(F3:F8)</f>
+      <c r="F9" s="26">
+        <f>SUM(F3:F8)</f>
         <v>100</v>
       </c>
-      <c r="G9" s="27" t="n">
-        <f aca="false">SUM(G3:G8)</f>
+      <c r="G9" s="27">
+        <f>SUM(G3:G8)</f>
         <v>75</v>
       </c>
-      <c r="H9" s="28" t="n">
-        <f aca="false">SUM(H3:H8)</f>
+      <c r="H9" s="28">
+        <f>SUM(H3:H8)</f>
         <v>25</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="26" t="n">
-        <f aca="false">SUM(J3:J8)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="27" t="n">
-        <f aca="false">SUM(K3:K8)</f>
+      <c r="J9" s="26">
+        <f>SUM(J3:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="27">
+        <f>SUM(K3:K8)</f>
         <v>750</v>
       </c>
-      <c r="L9" s="28" t="n">
-        <f aca="false">SUM(L3:L8)</f>
+      <c r="L9" s="28">
+        <f>SUM(L3:L8)</f>
         <v>-750</v>
       </c>
       <c r="M9" s="10"/>
-      <c r="N9" s="23" t="n">
-        <f aca="false">SUM(N3:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="24" t="n">
-        <f aca="false">SUM(O3:O8)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="25" t="n">
-        <f aca="false">SUM(P3:P8)</f>
+      <c r="N9" s="23">
+        <f>SUM(N3:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <f>SUM(O3:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <f>SUM(P3:P8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1163,76 +1366,68 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.83"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:27">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="29"/>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="30"/>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="31"/>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:27">
       <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="E3" s="33"/>
@@ -1259,14 +1454,14 @@
       <c r="Z3" s="33"/>
       <c r="AA3" s="33"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="E4" s="33"/>
@@ -1293,14 +1488,14 @@
       <c r="Z4" s="33"/>
       <c r="AA4" s="33"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="E5" s="33"/>
@@ -1327,14 +1522,14 @@
       <c r="Z5" s="33"/>
       <c r="AA5" s="33"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="E6" s="33"/>
@@ -1361,14 +1556,14 @@
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="E7" s="33"/>
@@ -1395,14 +1590,14 @@
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="E8" s="33"/>
@@ -1429,14 +1624,14 @@
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="E9" s="33"/>
@@ -1463,16 +1658,16 @@
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">SUM(B3:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">SUM(C3:C9)</f>
+      <c r="B10">
+        <f>SUM(B3:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C3:C9)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
@@ -1499,11 +1694,11 @@
       <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:27">
       <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="33"/>
@@ -1530,14 +1725,14 @@
       <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
       <c r="E12" s="33"/>
@@ -1564,14 +1759,14 @@
       <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
       <c r="E13" s="33"/>
@@ -1598,14 +1793,14 @@
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
       <c r="E14" s="33"/>
@@ -1632,14 +1827,14 @@
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
       <c r="E15" s="33"/>
@@ -1666,14 +1861,14 @@
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
       <c r="E16" s="33"/>
@@ -1700,14 +1895,14 @@
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
       <c r="E17" s="33"/>
@@ -1734,14 +1929,14 @@
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
       <c r="E18" s="33"/>
@@ -1768,14 +1963,14 @@
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
       <c r="E19" s="33"/>
@@ -1802,16 +1997,16 @@
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <f aca="false">SUM(B12:B19)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <f aca="false">SUM(C12:C19)</f>
+      <c r="B20">
+        <f>SUM(B12:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C12:C19)</f>
         <v>0</v>
       </c>
       <c r="E20" s="33"/>
@@ -1838,11 +2033,11 @@
       <c r="Z20" s="33"/>
       <c r="AA20" s="33"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:27">
       <c r="A21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="33"/>
@@ -1869,14 +2064,14 @@
       <c r="Z21" s="33"/>
       <c r="AA21" s="33"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
       <c r="E22" s="34"/>
@@ -1903,14 +2098,14 @@
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
       <c r="E23" s="33"/>
@@ -1937,14 +2132,14 @@
       <c r="Z23" s="33"/>
       <c r="AA23" s="33"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>0</v>
       </c>
       <c r="E24" s="33"/>
@@ -1971,14 +2166,14 @@
       <c r="Z24" s="33"/>
       <c r="AA24" s="33"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>0</v>
       </c>
       <c r="E25" s="33"/>
@@ -2005,14 +2200,14 @@
       <c r="Z25" s="33"/>
       <c r="AA25" s="33"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
       <c r="E26" s="33"/>
@@ -2039,14 +2234,14 @@
       <c r="Z26" s="33"/>
       <c r="AA26" s="33"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
       <c r="E27" s="33"/>
@@ -2073,16 +2268,16 @@
       <c r="Z27" s="33"/>
       <c r="AA27" s="33"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:27">
       <c r="A28" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <f aca="false">SUM(B22:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <f aca="false">SUM(C22:C27)</f>
+      <c r="B28">
+        <f>SUM(B22:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C22:C27)</f>
         <v>0</v>
       </c>
       <c r="E28" s="33"/>
@@ -2109,11 +2304,11 @@
       <c r="Z28" s="33"/>
       <c r="AA28" s="33"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:27">
       <c r="A29" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="33"/>
@@ -2140,14 +2335,14 @@
       <c r="Z29" s="33"/>
       <c r="AA29" s="33"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>0.75</v>
       </c>
       <c r="E30" s="33"/>
@@ -2174,14 +2369,14 @@
       <c r="Z30" s="33"/>
       <c r="AA30" s="33"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
+    <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0</v>
       </c>
       <c r="E31" s="33"/>
@@ -2208,14 +2403,14 @@
       <c r="Z31" s="33"/>
       <c r="AA31" s="33"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>0</v>
       </c>
       <c r="E32" s="33"/>
@@ -2242,14 +2437,14 @@
       <c r="Z32" s="33"/>
       <c r="AA32" s="33"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0</v>
       </c>
       <c r="E33" s="33"/>
@@ -2276,14 +2471,14 @@
       <c r="Z33" s="33"/>
       <c r="AA33" s="33"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0</v>
       </c>
       <c r="E34" s="33"/>
@@ -2310,14 +2505,14 @@
       <c r="Z34" s="33"/>
       <c r="AA34" s="33"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>0</v>
       </c>
       <c r="E35" s="33"/>
@@ -2344,16 +2539,16 @@
       <c r="Z35" s="33"/>
       <c r="AA35" s="33"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:27">
       <c r="A36" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <f aca="false">SUM(B30:B35)</f>
+      <c r="B36">
+        <f>SUM(B30:B35)</f>
         <v>1</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <f aca="false">SUM(C30:C35)</f>
+      <c r="C36">
+        <f>SUM(C30:C35)</f>
         <v>0.75</v>
       </c>
       <c r="E36" s="33"/>
@@ -2380,11 +2575,11 @@
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:27">
       <c r="A37" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="33"/>
@@ -2411,14 +2606,14 @@
       <c r="Z37" s="33"/>
       <c r="AA37" s="33"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>0</v>
       </c>
       <c r="E38" s="33"/>
@@ -2445,14 +2640,14 @@
       <c r="Z38" s="33"/>
       <c r="AA38" s="33"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>0</v>
       </c>
       <c r="E39" s="33"/>
@@ -2479,14 +2674,14 @@
       <c r="Z39" s="33"/>
       <c r="AA39" s="33"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
       <c r="E40" s="33"/>
@@ -2513,14 +2708,14 @@
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0" t="n">
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
       <c r="E41" s="33"/>
@@ -2547,14 +2742,14 @@
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
       <c r="E42" s="33"/>
@@ -2581,14 +2776,14 @@
       <c r="Z42" s="33"/>
       <c r="AA42" s="33"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="0" t="n">
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
       <c r="E43" s="33"/>
@@ -2615,14 +2810,14 @@
       <c r="Z43" s="33"/>
       <c r="AA43" s="33"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
       <c r="E44" s="33"/>
@@ -2649,16 +2844,16 @@
       <c r="Z44" s="33"/>
       <c r="AA44" s="33"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <f aca="false">SUM(B38:B44)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <f aca="false">SUM(C38:C44)</f>
+      <c r="B45">
+        <f>SUM(B38:B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>SUM(C38:C44)</f>
         <v>0</v>
       </c>
       <c r="E45" s="33"/>
@@ -2685,11 +2880,11 @@
       <c r="Z45" s="33"/>
       <c r="AA45" s="33"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:27">
       <c r="A46" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="33"/>
@@ -2716,14 +2911,14 @@
       <c r="Z46" s="33"/>
       <c r="AA46" s="33"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0" t="n">
+    <row r="47" spans="1:27">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
       <c r="E47" s="33"/>
@@ -2750,14 +2945,14 @@
       <c r="Z47" s="33"/>
       <c r="AA47" s="33"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="0" t="n">
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
         <v>0</v>
       </c>
       <c r="E48" s="33"/>
@@ -2784,14 +2979,14 @@
       <c r="Z48" s="33"/>
       <c r="AA48" s="33"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0" t="n">
+    <row r="49" spans="1:27">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>0</v>
       </c>
       <c r="E49" s="33"/>
@@ -2818,14 +3013,14 @@
       <c r="Z49" s="33"/>
       <c r="AA49" s="33"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0" t="n">
+    <row r="50" spans="1:27">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>0</v>
       </c>
       <c r="E50" s="33"/>
@@ -2852,14 +3047,14 @@
       <c r="Z50" s="33"/>
       <c r="AA50" s="33"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="0" t="n">
+    <row r="51" spans="1:27">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
         <v>0</v>
       </c>
       <c r="E51" s="33"/>
@@ -2886,14 +3081,14 @@
       <c r="Z51" s="33"/>
       <c r="AA51" s="33"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
+    <row r="52" spans="1:27">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>0</v>
       </c>
       <c r="E52" s="33"/>
@@ -2920,14 +3115,14 @@
       <c r="Z52" s="33"/>
       <c r="AA52" s="33"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="0" t="n">
+    <row r="53" spans="1:27">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>0</v>
       </c>
       <c r="E53" s="33"/>
@@ -2954,14 +3149,14 @@
       <c r="Z53" s="33"/>
       <c r="AA53" s="33"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="0" t="n">
+    <row r="54" spans="1:27">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>0</v>
       </c>
       <c r="E54" s="33"/>
@@ -2988,16 +3183,16 @@
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:27">
+      <c r="A55" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="0" t="n">
-        <f aca="false">SUM(B47:B54)</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <f aca="false">SUM(C47:C54)</f>
+      <c r="B55">
+        <f>SUM(B47:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>SUM(C47:C54)</f>
         <v>0</v>
       </c>
       <c r="E55" s="33"/>
@@ -3024,16 +3219,16 @@
       <c r="Z55" s="33"/>
       <c r="AA55" s="33"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:27">
+      <c r="A56" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="0" t="n">
-        <f aca="false">SUM(B28,B36,B20,B10)</f>
+      <c r="B56">
+        <f>SUM(B28,B36,B20,B10)</f>
         <v>1</v>
       </c>
-      <c r="C56" s="0" t="n">
-        <f aca="false">SUM(C10,C20,C28,C36)</f>
+      <c r="C56">
+        <f>SUM(C10,C20,C28,C36)</f>
         <v>0.75</v>
       </c>
       <c r="E56" s="33"/>
@@ -3060,57 +3255,49 @@
       <c r="Z56" s="33"/>
       <c r="AA56" s="33"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:27">
+      <c r="A57" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="38" t="n">
-        <f aca="false">B56*100</f>
+      <c r="B57" s="38">
+        <f>B56*100</f>
         <v>100</v>
       </c>
-      <c r="C57" s="38" t="n">
-        <f aca="false">C56*100</f>
+      <c r="C57" s="38">
+        <f>C56*100</f>
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="39" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="39" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="39" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="39" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="39" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="39" width="8.83"/>
+    <col min="1" max="1" width="15.42578125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="39" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9" style="39" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="39" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="40" t="s">
         <v>25</v>
       </c>
@@ -3148,7 +3335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1">
       <c r="B2" s="41" t="s">
         <v>28</v>
       </c>
@@ -3183,47 +3370,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12">
       <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="42">
         <v>1.5</v>
       </c>
-      <c r="D3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="42">
+        <v>0</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0</v>
+      </c>
+      <c r="H3" s="42">
+        <v>0</v>
+      </c>
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
+        <v>0</v>
+      </c>
+      <c r="K3" s="42">
+        <v>0</v>
+      </c>
+      <c r="L3" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="n">
-        <f aca="false">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
+      <c r="B4" s="41">
+        <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$1,C$3:Z$3)</f>
         <v>1.5</v>
       </c>
       <c r="C4" s="44" t="s">
@@ -3239,12 +3426,12 @@
       <c r="K4" s="44"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12">
       <c r="A5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="41" t="n">
-        <f aca="false">SUMIF(C5:L5,A$1,C$3:Z$3)</f>
+      <c r="B5" s="41">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="C5" s="44" t="s">
@@ -3258,12 +3445,12 @@
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12">
       <c r="A6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41" t="n">
-        <f aca="false">SUMIF(C6:L6,A$1,C$3:Z$3)</f>
+      <c r="B6" s="41">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -3279,12 +3466,12 @@
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12">
       <c r="A7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="41" t="n">
-        <f aca="false">SUMIF(C7:L7,A$1,C$3:Z$3)</f>
+      <c r="B7" s="41">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -3300,12 +3487,12 @@
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12">
       <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="41" t="n">
-        <f aca="false">SUMIF(C8:L8,A$1,C$3:Z$3)</f>
+      <c r="B8" s="41">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -3321,12 +3508,12 @@
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12">
       <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="n">
-        <f aca="false">SUMIF(C9:L9,A$1,C$3:Z$3)</f>
+      <c r="B9" s="41">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -3342,88 +3529,80 @@
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12">
       <c r="A10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="41" t="n">
-        <f aca="false">SUM(B4:B9)</f>
+      <c r="B10" s="41">
+        <f>SUM(B4:B9)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="42" t="n">
-        <f aca="false">COUNTIF(C4:C9,"*ü*") * C3</f>
+      <c r="C10" s="42">
+        <f t="shared" ref="C10:L10" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>9</v>
       </c>
-      <c r="D10" s="42" t="n">
-        <f aca="false">COUNTIF(D4:D9,"*ü*") * D3</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="42" t="n">
-        <f aca="false">COUNTIF(E4:E9,"*ü*") * E3</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="42" t="n">
-        <f aca="false">COUNTIF(F4:F9,"*ü*") * F3</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="42" t="n">
-        <f aca="false">COUNTIF(G4:G9,"*ü*") * G3</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="42" t="n">
-        <f aca="false">COUNTIF(H4:H9,"*ü*") * H3</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="42" t="n">
-        <f aca="false">COUNTIF(I4:I9,"*ü*") * I3</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="42" t="n">
-        <f aca="false">COUNTIF(J4:J9,"*ü*") * J3</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="42" t="n">
-        <f aca="false">COUNTIF(K4:K9,"*ü*") * K3</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="42" t="n">
-        <f aca="false">COUNTIF(L4:L9,"*ü*") * L3</f>
+      <c r="D10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="5" style="0" width="3.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.83"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19">
       <c r="A1" s="45"/>
       <c r="B1" s="46" t="s">
         <v>37</v>
@@ -3434,64 +3613,64 @@
       <c r="D1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1">
         <v>1</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1">
         <v>3</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1">
         <v>4</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1">
         <v>5</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1">
         <v>6</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1">
         <v>7</v>
       </c>
-      <c r="L1" s="0" t="n">
+      <c r="L1">
         <v>8</v>
       </c>
-      <c r="M1" s="0" t="n">
+      <c r="M1">
         <v>9</v>
       </c>
-      <c r="N1" s="0" t="n">
+      <c r="N1">
         <v>10</v>
       </c>
-      <c r="O1" s="0" t="n">
+      <c r="O1">
         <v>11</v>
       </c>
-      <c r="P1" s="0" t="n">
+      <c r="P1">
         <v>12</v>
       </c>
-      <c r="Q1" s="0" t="n">
+      <c r="Q1">
         <v>13</v>
       </c>
-      <c r="R1" s="0" t="n">
+      <c r="R1">
         <v>14</v>
       </c>
-      <c r="S1" s="0" t="n">
+      <c r="S1">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="50" t="n">
-        <v>0</v>
+      <c r="C2" s="49">
+        <v>1</v>
+      </c>
+      <c r="D2" s="50">
+        <v>0.5</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -3505,15 +3684,15 @@
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19">
       <c r="A3" s="51"/>
       <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="50" t="n">
+      <c r="C3" s="49">
+        <v>0</v>
+      </c>
+      <c r="D3" s="50">
         <v>0</v>
       </c>
       <c r="E3" s="33"/>
@@ -3528,15 +3707,15 @@
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19">
       <c r="A4" s="52"/>
       <c r="B4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="50" t="n">
+      <c r="C4" s="49">
+        <v>0</v>
+      </c>
+      <c r="D4" s="50">
         <v>0</v>
       </c>
       <c r="E4" s="33"/>
@@ -3551,18 +3730,18 @@
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19">
       <c r="A5" s="52"/>
       <c r="B5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="48" t="n">
-        <f aca="false">SUM(C2:C4)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="54" t="n">
-        <f aca="false">SUM(D2:D4)</f>
-        <v>0</v>
+      <c r="C5" s="48">
+        <f>SUM(C2:C4)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="54">
+        <f>SUM(D2:D4)</f>
+        <v>0.5</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -3576,17 +3755,17 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="50" t="n">
+      <c r="C6" s="49">
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
         <v>0</v>
       </c>
       <c r="E6" s="33"/>
@@ -3601,15 +3780,15 @@
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19">
       <c r="A7" s="51"/>
       <c r="B7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="50" t="n">
+      <c r="C7" s="49">
+        <v>0</v>
+      </c>
+      <c r="D7" s="50">
         <v>0</v>
       </c>
       <c r="E7" s="33"/>
@@ -3624,15 +3803,15 @@
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19">
       <c r="A8" s="52"/>
       <c r="B8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="50" t="n">
+      <c r="C8" s="49">
+        <v>0</v>
+      </c>
+      <c r="D8" s="50">
         <v>0</v>
       </c>
       <c r="E8" s="33"/>
@@ -3647,17 +3826,17 @@
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19">
       <c r="A9" s="52"/>
       <c r="B9" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="48" t="n">
-        <f aca="false">SUM(C6:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="54" t="n">
-        <f aca="false">SUM(D6:D8)</f>
+      <c r="C9" s="48">
+        <f>SUM(C6:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="54">
+        <f>SUM(D6:D8)</f>
         <v>0</v>
       </c>
       <c r="E9" s="33"/>
@@ -3672,17 +3851,17 @@
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="50" t="n">
+      <c r="C10" s="49">
+        <v>0</v>
+      </c>
+      <c r="D10" s="50">
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
@@ -3697,15 +3876,15 @@
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19">
       <c r="A11" s="51"/>
       <c r="B11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="50" t="n">
+      <c r="C11" s="49">
+        <v>0</v>
+      </c>
+      <c r="D11" s="50">
         <v>0</v>
       </c>
       <c r="E11" s="33"/>
@@ -3720,15 +3899,15 @@
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19">
       <c r="A12" s="52"/>
       <c r="B12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="50" t="n">
+      <c r="C12" s="49">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50">
         <v>0</v>
       </c>
       <c r="E12" s="33"/>
@@ -3743,15 +3922,15 @@
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19">
       <c r="A13" s="52"/>
       <c r="B13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="50" t="n">
+      <c r="C13" s="49">
+        <v>0</v>
+      </c>
+      <c r="D13" s="50">
         <v>0</v>
       </c>
       <c r="E13" s="33"/>
@@ -3766,15 +3945,15 @@
       <c r="N13" s="33"/>
       <c r="O13" s="33"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19">
       <c r="A14" s="52"/>
       <c r="B14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="50" t="n">
+      <c r="C14" s="49">
+        <v>0</v>
+      </c>
+      <c r="D14" s="50">
         <v>0</v>
       </c>
       <c r="E14" s="33"/>
@@ -3789,17 +3968,17 @@
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19">
       <c r="A15" s="52"/>
       <c r="B15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="48" t="n">
-        <f aca="false">SUM(C10:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="54" t="n">
-        <f aca="false">SUM(D10:D14)</f>
+      <c r="C15" s="48">
+        <f>SUM(C10:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="54">
+        <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
       <c r="E15" s="33"/>
@@ -3814,17 +3993,17 @@
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19">
       <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="50" t="n">
+      <c r="C16" s="49">
+        <v>0</v>
+      </c>
+      <c r="D16" s="50">
         <v>0</v>
       </c>
       <c r="E16" s="33"/>
@@ -3839,15 +4018,15 @@
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15">
       <c r="A17" s="51"/>
       <c r="B17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="50" t="n">
+      <c r="C17" s="49">
+        <v>0</v>
+      </c>
+      <c r="D17" s="50">
         <v>0</v>
       </c>
       <c r="E17" s="33"/>
@@ -3862,15 +4041,15 @@
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15">
       <c r="A18" s="52"/>
       <c r="B18" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="50" t="n">
+      <c r="C18" s="49">
+        <v>0</v>
+      </c>
+      <c r="D18" s="50">
         <v>0</v>
       </c>
       <c r="E18" s="33"/>
@@ -3885,17 +4064,17 @@
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15">
       <c r="A19" s="52"/>
       <c r="B19" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="48" t="n">
-        <f aca="false">SUM(C16:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="54" t="n">
-        <f aca="false">SUM(D16:D18)</f>
+      <c r="C19" s="48">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="54">
+        <f>SUM(D16:D18)</f>
         <v>0</v>
       </c>
       <c r="E19" s="33"/>
@@ -3910,17 +4089,17 @@
       <c r="N19" s="33"/>
       <c r="O19" s="33"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="49" t="n">
+      <c r="C20" s="49">
         <v>1</v>
       </c>
-      <c r="D20" s="50" t="n">
+      <c r="D20" s="50">
         <v>2</v>
       </c>
       <c r="E20" s="33"/>
@@ -3935,15 +4114,15 @@
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:15">
       <c r="A21" s="51"/>
       <c r="B21" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="50" t="n">
+      <c r="C21" s="49">
+        <v>0</v>
+      </c>
+      <c r="D21" s="50">
         <v>0</v>
       </c>
       <c r="E21" s="33"/>
@@ -3958,15 +4137,15 @@
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:15">
       <c r="A22" s="52"/>
       <c r="B22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="50" t="n">
+      <c r="C22" s="49">
+        <v>0</v>
+      </c>
+      <c r="D22" s="50">
         <v>0</v>
       </c>
       <c r="E22" s="33"/>
@@ -3981,15 +4160,15 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:15">
       <c r="A23" s="52"/>
       <c r="B23" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="50" t="n">
+      <c r="C23" s="49">
+        <v>0</v>
+      </c>
+      <c r="D23" s="50">
         <v>0</v>
       </c>
       <c r="E23" s="33"/>
@@ -4004,15 +4183,15 @@
       <c r="N23" s="33"/>
       <c r="O23" s="33"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:15">
       <c r="A24" s="52"/>
       <c r="B24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="50" t="n">
+      <c r="C24" s="49">
+        <v>0</v>
+      </c>
+      <c r="D24" s="50">
         <v>0</v>
       </c>
       <c r="E24" s="33"/>
@@ -4027,17 +4206,17 @@
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:15">
       <c r="A25" s="52"/>
       <c r="B25" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="48" t="n">
-        <f aca="false">SUM(C20:C24)</f>
+      <c r="C25" s="48">
+        <f>SUM(C20:C24)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="54" t="n">
-        <f aca="false">SUM(D20:D24)</f>
+      <c r="D25" s="54">
+        <f>SUM(D20:D24)</f>
         <v>2</v>
       </c>
       <c r="E25" s="33"/>
@@ -4052,17 +4231,17 @@
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:15">
       <c r="A26" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="49" t="n">
+      <c r="C26" s="49">
         <v>1</v>
       </c>
-      <c r="D26" s="50" t="n">
+      <c r="D26" s="50">
         <v>1</v>
       </c>
       <c r="E26" s="33"/>
@@ -4077,15 +4256,15 @@
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:15">
       <c r="A27" s="51"/>
       <c r="B27" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="50" t="n">
+      <c r="C27" s="49">
+        <v>0</v>
+      </c>
+      <c r="D27" s="50">
         <v>0</v>
       </c>
       <c r="E27" s="33"/>
@@ -4100,15 +4279,15 @@
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:15">
       <c r="A28" s="52"/>
       <c r="B28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="50" t="n">
+      <c r="C28" s="49">
+        <v>0</v>
+      </c>
+      <c r="D28" s="50">
         <v>0</v>
       </c>
       <c r="E28" s="33"/>
@@ -4123,17 +4302,17 @@
       <c r="N28" s="33"/>
       <c r="O28" s="33"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:15">
       <c r="A29" s="52"/>
       <c r="B29" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="48" t="n">
-        <f aca="false">SUM(C26:C28)</f>
+      <c r="C29" s="48">
+        <f>SUM(C26:C28)</f>
         <v>1</v>
       </c>
-      <c r="D29" s="54" t="n">
-        <f aca="false">SUM(D26:D28)</f>
+      <c r="D29" s="54">
+        <f>SUM(D26:D28)</f>
         <v>1</v>
       </c>
       <c r="E29" s="33"/>
@@ -4148,18 +4327,18 @@
       <c r="N29" s="33"/>
       <c r="O29" s="33"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:15">
       <c r="A30" s="56"/>
       <c r="B30" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="58" t="n">
-        <f aca="false">SUM(C5,C9,C15,C29)</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="59" t="n">
-        <f aca="false">SUM(D5,D9,D15,D29)</f>
-        <v>1</v>
+      <c r="C30" s="58">
+        <f>SUM(C5,C9,C15,C29)</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="59">
+        <f>SUM(D5,D9,D15,D29)</f>
+        <v>1.5</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -4174,12 +4353,7 @@
       <c r="O30" s="33"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>